--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D742E66-2573-4F4C-87D8-32FAAFB2B2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87996BF-0EC7-4D8E-A235-8C1CA306C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="historical_data" sheetId="4" r:id="rId1"/>
-    <sheet name="Veda" sheetId="1" r:id="rId2"/>
-    <sheet name="iamc_data" sheetId="2" r:id="rId3"/>
-    <sheet name="base_year_data" sheetId="3" r:id="rId4"/>
+    <sheet name="Veda" sheetId="1" r:id="rId1"/>
+    <sheet name="iamc_data" sheetId="2" r:id="rId2"/>
+    <sheet name="historical_data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="64">
   <si>
     <t>~Inputcell: 3</t>
   </si>
@@ -83,6 +82,15 @@
     <t>elc_industry</t>
   </si>
   <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>non-road transport demand assumed to be constant</t>
+  </si>
+  <si>
+    <t>base-year demand (TWh)</t>
+  </si>
+  <si>
     <t>Model</t>
   </si>
   <si>
@@ -105,9 +113,6 @@
   </si>
   <si>
     <t>Downscaling[MESSAGEix-GLOBIOM 1.1-M-R12]</t>
-  </si>
-  <si>
-    <t>MEX</t>
   </si>
   <si>
     <t>Final Energy|Industry|Electricity</t>
@@ -155,31 +160,31 @@
     <t>oil</t>
   </si>
   <si>
-    <t>iso_code</t>
+    <t>Trd_electricity import</t>
+  </si>
+  <si>
+    <t>Trd_electricity export</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>limtype</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>EMBER Utilization Factors</t>
   </si>
   <si>
     <t>model_fuel</t>
-  </si>
-  <si>
-    <t>generation_twh_gem_irena</t>
-  </si>
-  <si>
-    <t>generation_twh_gem_ember</t>
-  </si>
-  <si>
-    <t>generation_twh_irena</t>
-  </si>
-  <si>
-    <t>generation_twh_ember</t>
-  </si>
-  <si>
-    <t>utilization_factor_irena</t>
-  </si>
-  <si>
-    <t>utilization_factor_ember</t>
-  </si>
-  <si>
-    <t>geothermal</t>
   </si>
   <si>
     <t>hydro</t>
@@ -194,23 +199,45 @@
     <t>wind</t>
   </si>
   <si>
-    <t>elc_roadtransport</t>
+    <t>IRENA Utilization Factors</t>
   </si>
   <si>
-    <t>non-road transport demand assumed to be constant</t>
+    <t>EMBER Generation (TWh)</t>
   </si>
   <si>
-    <t>base-year demand (TWh)</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>CHE</t>
+    <t>IRENA Generation (TWh)</t>
+  </si>
+  <si>
+    <t>EMBER Capacity (GW)</t>
+  </si>
+  <si>
+    <t>IRENA Capacity (GW)</t>
+  </si>
+  <si>
+    <t>Electricity Trade Data (TWh) - Source: UNSD</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Import</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,11 +251,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
     </font>
     <font>
       <sz val="11"/>
@@ -262,8 +284,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,28 +313,25 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -330,21 +365,23 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -682,180 +719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CADEBD6-8212-4923-8814-5861EEFC4C21}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>0.2</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-      <c r="E2">
-        <v>0.4</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <v>0.19</v>
-      </c>
-      <c r="H2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3">
-        <v>27.4</v>
-      </c>
-      <c r="D3">
-        <v>27.5</v>
-      </c>
-      <c r="E3">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="F3">
-        <v>31</v>
-      </c>
-      <c r="G3">
-        <v>0.23</v>
-      </c>
-      <c r="H3">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4">
-        <v>25.3</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>24.2</v>
-      </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>0.93</v>
-      </c>
-      <c r="H4">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5">
-        <v>3.9</v>
-      </c>
-      <c r="F5">
-        <v>3.4</v>
-      </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="E6">
-        <v>0.2</v>
-      </c>
-      <c r="F6">
-        <v>0.2</v>
-      </c>
-      <c r="G6">
-        <v>0.19</v>
-      </c>
-      <c r="H6">
-        <v>0.22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA19"/>
+  <dimension ref="B2:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -916,12 +784,12 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="5">
-        <f>SUM(base_year_data!F2:F16)</f>
-        <v>340.2</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>54</v>
+      <c r="Q10" s="4">
+        <f>historical_data!X32</f>
+        <v>62.27</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
@@ -949,7 +817,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -982,31 +850,31 @@
         <f>iamc_data!L1</f>
         <v>2050</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="5">
         <v>2022</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>2025</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>2030</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <v>2035</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <v>2040</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="5">
         <v>2045</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <v>2050</v>
       </c>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1044,40 +912,40 @@
       </c>
       <c r="R16" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>28.129090909090905</v>
+        <v>5.1487316017316012</v>
       </c>
       <c r="S16" s="1">
         <f>R16</f>
-        <v>28.129090909090905</v>
+        <v>5.1487316017316012</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:X16" si="0">S16</f>
-        <v>28.129090909090905</v>
+        <v>5.1487316017316012</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>28.129090909090905</v>
+        <v>5.1487316017316012</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="0"/>
-        <v>28.129090909090905</v>
+        <v>5.1487316017316012</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="0"/>
-        <v>28.129090909090905</v>
+        <v>5.1487316017316012</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="0"/>
-        <v>28.129090909090905</v>
+        <v>5.1487316017316012</v>
       </c>
       <c r="Y16" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="7:25" x14ac:dyDescent="0.45">
+      <c r="AA16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G17">
         <f>SUMIFS(iamc_data!F$2:F$50,iamc_data!$O$2:$O$50,Veda!$Q17,iamc_data!$B$2:$B$50,Veda!$C$5)</f>
         <v>0.15110000000000001</v>
@@ -1111,37 +979,37 @@
       </c>
       <c r="R17" s="1">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>222.52909090909091</v>
+        <v>40.731588744588748</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ref="S17:X18" si="1">R17*H17/G17</f>
-        <v>255.5181818181818</v>
+        <v>46.769891774891775</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
-        <v>282.32181818181817</v>
+        <v>51.676012987012989</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="1"/>
-        <v>278.93454545454546</v>
+        <v>51.056008658008658</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="1"/>
-        <v>269.21454545454543</v>
+        <v>49.276865800865799</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="1"/>
-        <v>267.8890909090909</v>
+        <v>49.034255411255415</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="1"/>
-        <v>265.23818181818183</v>
+        <v>48.549034632034633</v>
       </c>
       <c r="Y17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="7:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G18">
         <f>SUMIFS(iamc_data!F$2:F$50,iamc_data!$O$2:$O$50,Veda!$Q18,iamc_data!$B$2:$B$50,Veda!$C$5)</f>
         <v>6.08E-2</v>
@@ -1175,39 +1043,39 @@
       </c>
       <c r="R18" s="1">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>89.541818181818172</v>
+        <v>16.389679653679654</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="1"/>
-        <v>82.325454545454534</v>
+        <v>15.068800865800865</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="1"/>
-        <v>75.550909090909087</v>
+        <v>13.828792207792208</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>72.163636363636371</v>
+        <v>13.208787878787881</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="1"/>
-        <v>65.241818181818189</v>
+        <v>11.941822510822512</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="1"/>
-        <v>58.467272727272729</v>
+        <v>10.701813852813853</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="1"/>
-        <v>57.730909090909087</v>
+        <v>10.567030303030304</v>
       </c>
       <c r="Y18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="7:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:26" x14ac:dyDescent="0.45">
       <c r="Q19" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="R19" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)-R16</f>
@@ -1215,30 +1083,112 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" ref="S19:X19" si="2">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>-5.7436363636363623</v>
+        <v>-1.0513116883116878</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="2"/>
-        <v>-1.3254545454545408</v>
+        <v>-0.24261038961038839</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="2"/>
-        <v>15.905454545454546</v>
+        <v>2.9113246753246766</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="2"/>
-        <v>46.538181818181812</v>
+        <v>8.5183203463203476</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="2"/>
-        <v>94.696363636363628</v>
+        <v>17.333164502164504</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="2"/>
-        <v>150.07090909090905</v>
+        <v>27.468887445887443</v>
       </c>
       <c r="Y19" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="7:26" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q22" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="7:26" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="5">
+        <f>R15</f>
+        <v>2022</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" ref="S23:X23" si="3">S15</f>
+        <v>2025</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" si="3"/>
+        <v>2030</v>
+      </c>
+      <c r="U23" s="5">
+        <f t="shared" si="3"/>
+        <v>2035</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="3"/>
+        <v>2040</v>
+      </c>
+      <c r="W23" s="5">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+      <c r="X23" s="5">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="Q24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="1">
+        <f>historical_data!Y87</f>
+        <v>29.7</v>
+      </c>
+      <c r="S24" s="1">
+        <f>AVERAGE(historical_data!U87:Z87)</f>
+        <v>32.266666666666666</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="Q25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" s="1">
+        <f>historical_data!Y88</f>
+        <v>33.1</v>
+      </c>
+      <c r="S25" s="1">
+        <f>AVERAGE(historical_data!U88:Z88)</f>
+        <v>29.933333333333334</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1246,29 +1196,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1">
         <v>2020</v>
@@ -1292,10 +1244,10 @@
         <v>2050</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -1303,19 +1255,19 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>6.08E-2</v>
@@ -1339,10 +1291,10 @@
         <v>4.1099999999999998E-2</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
@@ -1350,19 +1302,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>6.0299999999999999E-2</v>
@@ -1386,10 +1338,10 @@
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
         <v>14</v>
@@ -1397,19 +1349,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
       </c>
       <c r="F4">
         <v>1.9099999999999999E-2</v>
@@ -1433,10 +1385,10 @@
         <v>0.121</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
         <v>11</v>
@@ -1444,19 +1396,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>0.15110000000000001</v>
@@ -1480,10 +1432,10 @@
         <v>0.18010000000000001</v>
       </c>
       <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
         <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
       </c>
       <c r="O5" t="s">
         <v>13</v>
@@ -1491,19 +1443,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>6.08E-2</v>
@@ -1527,10 +1479,10 @@
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O6" t="s">
         <v>14</v>
@@ -1538,19 +1490,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>6.0299999999999999E-2</v>
@@ -1574,10 +1526,10 @@
         <v>4.0899999999999999E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O7" t="s">
         <v>14</v>
@@ -1585,19 +1537,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>0.15279999999999999</v>
@@ -1621,10 +1573,10 @@
         <v>0.21609999999999999</v>
       </c>
       <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
         <v>28</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
       </c>
       <c r="O8" t="s">
         <v>13</v>
@@ -1632,19 +1584,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
       </c>
       <c r="F9">
         <v>1.7999999999999999E-2</v>
@@ -1668,10 +1620,10 @@
         <v>0.1154</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O9" t="s">
         <v>11</v>
@@ -1679,19 +1631,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
       </c>
       <c r="F10">
         <v>2.1100000000000001E-2</v>
@@ -1715,10 +1667,10 @@
         <v>3.9800000000000002E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" t="s">
         <v>11</v>
@@ -1726,19 +1678,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>0.15540000000000001</v>
@@ -1762,10 +1714,10 @@
         <v>0.2487</v>
       </c>
       <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
         <v>28</v>
-      </c>
-      <c r="N11" t="s">
-        <v>26</v>
       </c>
       <c r="O11" t="s">
         <v>13</v>
@@ -1773,19 +1725,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <v>6.0699999999999997E-2</v>
@@ -1809,10 +1761,10 @@
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O12" t="s">
         <v>14</v>
@@ -1820,19 +1772,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>0.1492</v>
@@ -1856,10 +1808,10 @@
         <v>0.21590000000000001</v>
       </c>
       <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
         <v>28</v>
-      </c>
-      <c r="N13" t="s">
-        <v>26</v>
       </c>
       <c r="O13" t="s">
         <v>13</v>
@@ -1867,19 +1819,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
         <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
       </c>
       <c r="F14">
         <v>1.7899999999999999E-2</v>
@@ -1903,10 +1855,10 @@
         <v>0.10290000000000001</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O14" t="s">
         <v>11</v>
@@ -1914,19 +1866,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>0.1492</v>
@@ -1950,10 +1902,10 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="M15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" t="s">
         <v>28</v>
-      </c>
-      <c r="N15" t="s">
-        <v>26</v>
       </c>
       <c r="O15" t="s">
         <v>13</v>
@@ -1961,19 +1913,19 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <v>5.8999999999999997E-2</v>
@@ -1997,10 +1949,10 @@
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O16" t="s">
         <v>14</v>
@@ -2008,19 +1960,19 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
         <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
       </c>
       <c r="F17">
         <v>1.8100000000000002E-2</v>
@@ -2044,10 +1996,10 @@
         <v>0.1177</v>
       </c>
       <c r="M17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O17" t="s">
         <v>11</v>
@@ -2055,19 +2007,19 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>0.15210000000000001</v>
@@ -2091,10 +2043,10 @@
         <v>0.19189999999999999</v>
       </c>
       <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" t="s">
         <v>28</v>
-      </c>
-      <c r="N18" t="s">
-        <v>26</v>
       </c>
       <c r="O18" t="s">
         <v>13</v>
@@ -2102,19 +2054,19 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F19">
         <v>5.9900000000000002E-2</v>
@@ -2138,10 +2090,10 @@
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O19" t="s">
         <v>14</v>
@@ -2149,19 +2101,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>0.15110000000000001</v>
@@ -2185,10 +2137,10 @@
         <v>0.10390000000000001</v>
       </c>
       <c r="M20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
         <v>28</v>
-      </c>
-      <c r="N20" t="s">
-        <v>26</v>
       </c>
       <c r="O20" t="s">
         <v>13</v>
@@ -2196,19 +2148,19 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
         <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
       </c>
       <c r="F21">
         <v>1.7999999999999999E-2</v>
@@ -2232,10 +2184,10 @@
         <v>0.1212</v>
       </c>
       <c r="M21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O21" t="s">
         <v>11</v>
@@ -2243,19 +2195,19 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
         <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
       </c>
       <c r="F22">
         <v>2.12E-2</v>
@@ -2279,10 +2231,10 @@
         <v>0.1142</v>
       </c>
       <c r="M22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O22" t="s">
         <v>11</v>
@@ -2290,19 +2242,19 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F23">
         <v>0.79330000000000001</v>
@@ -2326,30 +2278,30 @@
         <v>41.091099999999997</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24">
         <v>1.8210999999999999</v>
@@ -2373,30 +2325,30 @@
         <v>10.4336</v>
       </c>
       <c r="M24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" t="s">
         <v>33</v>
       </c>
-      <c r="N24" t="s">
-        <v>31</v>
-      </c>
       <c r="O24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>2.4039000000000001</v>
@@ -2420,30 +2372,30 @@
         <v>7.3807999999999998</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F26">
         <v>2.4039000000000001</v>
@@ -2467,30 +2419,30 @@
         <v>4.7949000000000002</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27">
         <v>1.8210999999999999</v>
@@ -2514,30 +2466,30 @@
         <v>6.3018999999999998</v>
       </c>
       <c r="M27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" t="s">
         <v>33</v>
       </c>
-      <c r="N27" t="s">
-        <v>31</v>
-      </c>
       <c r="O27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F28">
         <v>3.1242999999999999</v>
@@ -2561,30 +2513,30 @@
         <v>5.2706</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F29">
         <v>0.79330000000000001</v>
@@ -2608,30 +2560,30 @@
         <v>9.2622999999999998</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30">
         <v>1.8210999999999999</v>
@@ -2655,30 +2607,30 @@
         <v>2.6432000000000002</v>
       </c>
       <c r="M30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" t="s">
         <v>33</v>
       </c>
-      <c r="N30" t="s">
-        <v>31</v>
-      </c>
       <c r="O30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F31">
         <v>3.1242999999999999</v>
@@ -2702,30 +2654,30 @@
         <v>4.6989999999999998</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F32">
         <v>0.79330000000000001</v>
@@ -2749,30 +2701,30 @@
         <v>18.1554</v>
       </c>
       <c r="M32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F33">
         <v>0.79330000000000001</v>
@@ -2796,30 +2748,30 @@
         <v>6.9612999999999996</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F34">
         <v>2.4039000000000001</v>
@@ -2843,30 +2795,30 @@
         <v>4.7228000000000003</v>
       </c>
       <c r="M34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35">
         <v>0.79330000000000001</v>
@@ -2890,30 +2842,30 @@
         <v>11.804</v>
       </c>
       <c r="M35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F36">
         <v>1.8210999999999999</v>
@@ -2937,30 +2889,30 @@
         <v>3.4154</v>
       </c>
       <c r="M36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" t="s">
         <v>33</v>
       </c>
-      <c r="N36" t="s">
-        <v>31</v>
-      </c>
       <c r="O36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F37">
         <v>2.4039000000000001</v>
@@ -2984,30 +2936,30 @@
         <v>4.9874000000000001</v>
       </c>
       <c r="M37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F38">
         <v>3.1242999999999999</v>
@@ -3031,30 +2983,30 @@
         <v>4.5690999999999997</v>
       </c>
       <c r="M38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F39">
         <v>0.79330000000000001</v>
@@ -3078,30 +3030,30 @@
         <v>12.6198</v>
       </c>
       <c r="M39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F40">
         <v>1.8210999999999999</v>
@@ -3125,30 +3077,30 @@
         <v>2.7033</v>
       </c>
       <c r="M40" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" t="s">
         <v>33</v>
       </c>
-      <c r="N40" t="s">
-        <v>31</v>
-      </c>
       <c r="O40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F41">
         <v>3.1242999999999999</v>
@@ -3172,30 +3124,30 @@
         <v>5.7683</v>
       </c>
       <c r="M41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F42">
         <v>2.4039000000000001</v>
@@ -3219,30 +3171,30 @@
         <v>4.8583999999999996</v>
       </c>
       <c r="M42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F43">
         <v>0.79330000000000001</v>
@@ -3266,30 +3218,30 @@
         <v>3.1745000000000001</v>
       </c>
       <c r="M43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F44">
         <v>1.8210999999999999</v>
@@ -3313,30 +3265,30 @@
         <v>2.6608999999999998</v>
       </c>
       <c r="M44" t="s">
+        <v>35</v>
+      </c>
+      <c r="N44" t="s">
         <v>33</v>
       </c>
-      <c r="N44" t="s">
-        <v>31</v>
-      </c>
       <c r="O44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F45">
         <v>2.4039000000000001</v>
@@ -3360,30 +3312,30 @@
         <v>4.7777000000000003</v>
       </c>
       <c r="M45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F46">
         <v>3.1242999999999999</v>
@@ -3407,30 +3359,30 @@
         <v>6.5091999999999999</v>
       </c>
       <c r="M46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F47">
         <v>2.4039000000000001</v>
@@ -3454,30 +3406,30 @@
         <v>5.2603999999999997</v>
       </c>
       <c r="M47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F48">
         <v>1.8210999999999999</v>
@@ -3501,30 +3453,30 @@
         <v>2.1049000000000002</v>
       </c>
       <c r="M48" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" t="s">
         <v>33</v>
       </c>
-      <c r="N48" t="s">
-        <v>31</v>
-      </c>
       <c r="O48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F49">
         <v>3.1242999999999999</v>
@@ -3548,30 +3500,30 @@
         <v>5.8238000000000003</v>
       </c>
       <c r="M49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F50">
         <v>3.1242999999999999</v>
@@ -3595,13 +3547,13 @@
         <v>3.1471</v>
       </c>
       <c r="M50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3609,274 +3561,4117 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Z88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K2" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M2" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O2" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P2" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R2" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S2" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T2" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U2" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V2" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W2" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.56406124093472998</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.59092130002686005</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.61778135911899001</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.59614408929477425</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.62151192288178592</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.65322171486555047</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.65068493150684936</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.67351598173515981</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.70205479452054798</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.70776255707762559</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.695803435529463</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0.79337899543378987</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.76434385546952543</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.80405002977963069</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.83879293230097274</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0.77530441400304428</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0.83238203957382051</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0.88470319634703198</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0.86567732115677321</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0.89421613394216137</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0.94653729071537296</v>
+      </c>
+      <c r="W3" s="9">
+        <v>1.0273972602739727</v>
+      </c>
+      <c r="X3" s="9">
+        <v>1.0273972602739727</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>1.0273972602739727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.75518089216719353</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.74639971900245872</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.72570123939986941</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.558759913482336</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.89421613394216137</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.70939334637964768</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.56364155251141557</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.52796803652968038</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.43859649122807021</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.40525114155251141</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.41992824527071099</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.47647409172126259</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.3995433789954338</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.31709791983764585</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.23782343987823443</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.29965753424657537</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0.42684137383363108</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0.35735556879094693</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0.3217102532171025</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0.31652137816521375</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0.3217102532171025</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0.24816358943815761</v>
+      </c>
+      <c r="X4" s="9">
+        <v>0.24816358943815761</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>0.24816358943815761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.3254131501194566</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.36358931570220004</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.3093097213134362</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.30523357920618194</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.29636459430979978</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.27339482309437774</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.27103117909067992</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.30600552112089169</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.31262577896212407</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.30867718173930775</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.31020635690764009</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.27779778996806054</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.33006686846920802</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.3286235747682717</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.32674685879794269</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.32715954372103362</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0.27675453743141093</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0.26241082342653577</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0.26664167139138339</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0.28930484699697923</v>
+      </c>
+      <c r="V5" s="9">
+        <v>0.28762869998207541</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0.28034405861739409</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0.2347492523474925</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0.2889741566855531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.94356449771689499</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.95640696347031962</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.96535636291443316</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.97457386766499332</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.95578433875039004</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.82744831106951411</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.98627300830993503</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.98981820244476593</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.98201877534813808</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.97560460003382377</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.92518440463645946</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.92959962133867924</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.88539926495155374</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.90454115157589932</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.95048903971637078</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.79154496962716137</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.72504010860175239</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0.69864384932878076</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0.8745046416279294</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0.90570022076871404</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0.8234261658919193</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0.746637048006911</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0.92365481920276438</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0.93291065037640386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B7" s="9">
+        <v>0.25799086757990863</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.26636225266362251</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.26636225266362251</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.28538812785388129</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.26563048823322793</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.29680365296803657</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.33057458143074581</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.30679223744292239</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.31764939448084173</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.27221636810677907</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.30695078640284118</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.27723418134377037</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.27441166139796275</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.28099754127151388</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.2907728095115017</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.26002029426686957</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.29820147236976985</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.30679223744292239</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0.31089089672593029</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0.30679223744292239</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0.29121237536110334</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0.27853881278538811</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0.27853881278538811</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.27853881278538811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5.7077625570776259E-2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>5.7077625570776259E-2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5.7077625570776259E-2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>8.5616438356164379E-2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>9.1324200913242004E-2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>7.1347031963470323E-2</v>
+      </c>
+      <c r="L8" s="9">
+        <v>7.903055848261327E-2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>8.8210875882108769E-2</v>
+      </c>
+      <c r="N8" s="9">
+        <v>7.783312577833125E-2</v>
+      </c>
+      <c r="O8" s="9">
+        <v>7.5102138908916136E-2</v>
+      </c>
+      <c r="P8" s="9">
+        <v>9.046265184802274E-2</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>9.1981209552905632E-2</v>
+      </c>
+      <c r="R8" s="9">
+        <v>9.1461737360400516E-2</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0.10040880728681058</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0.10258190770784673</v>
+      </c>
+      <c r="U8" s="9">
+        <v>9.9543378995433807E-2</v>
+      </c>
+      <c r="V8" s="9">
+        <v>9.9933889888227781E-2</v>
+      </c>
+      <c r="W8" s="9">
+        <v>8.8822168011509342E-2</v>
+      </c>
+      <c r="X8" s="9">
+        <v>8.8641289480882943E-2</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>7.955682742228061E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.15981735159817353</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.20547945205479451</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0.17123287671232879</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.19025875190258754</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.20928462709284629</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0.1569634703196347</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0.18550228310502284</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0.17123287671232876</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0.21404109589041095</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0.1775748351090817</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0.19025875190258751</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0.2156265854895992</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0.2156265854895992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L16" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M16" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N16" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O16" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P16" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R16" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S16" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T16" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U16" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V16" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X16" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.56540424388933652</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.57799296698682634</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.59752120026092637</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.60225639460195113</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.60573436784596157</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.62178179345186058</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.65346013435415018</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.67579908675799083</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.71087588210875885</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.6985281620721302</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.69196476876798885</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.76840580671553516</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0.7567705873090852</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0.79957880648716739</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0.84245578353372808</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.77245053272450548</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0.83065151558302253</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0.87873545288673349</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0.86360929124478869</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0.89003202031110862</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0.93918638439186386</v>
+      </c>
+      <c r="W17" s="9">
+        <v>1.0321433210435336</v>
+      </c>
+      <c r="X17" s="9">
+        <v>1.0386379305176703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.74114431991144314</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.72071151093845842</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.73539143670174034</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.57077625570776258</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.88329964817725881</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.73025785656728448</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.56078767123287676</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.54296920735276899</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.43014169373440658</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.40843486840595666</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.41573561319990937</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.4859174849476704</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.39286637373998451</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0.3240120850070381</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0.24227886634683929</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.30043369442693113</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0.42684137383363108</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0.36199230954097572</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.31506849315068491</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0.30832110241356814</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0.31494618395303325</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0.25284386766001765</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0.18793244401906242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.32961897667232265</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.36680237426422968</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.31664666051885476</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.31568287841037851</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.3040368286767729</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.28278980527623587</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.28107578609417233</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.31145350621516632</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.32137138790759145</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.31664954591165151</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0.31464857352103942</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0.28296740647891155</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0.33333531821055379</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0.33021329359669765</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0.32974953620276315</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.32954220562984121</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0.28287464603082668</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0.27535409467368688</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0.27766123786540403</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0.30024575557084082</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0.30029990459976708</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0.29171302487139622</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0.23313357542404456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.94342180365296813</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.95644263698630139</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.96549817067982646</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.97446751184094837</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.95571343486769333</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.82748376301086246</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.98623755636858668</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.98999546215150747</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.98201877534813808</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.97606617761118686</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.92429608355897686</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0.93016679621441967</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0.8859742966114208</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0.90509303757442028</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0.95096017403499478</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0.79079825790798253</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0.72425050724250506</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0.69787800697878011</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0.87382025873820268</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0.90481650904816513</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0.82285625822856256</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0.74679131185980507</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0.93148370973713435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.25696301551783729</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.26778265199020368</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.26786035307230432</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.28700522742409218</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.26581395654862949</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.2957555209216271</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.33115736045443078</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.30646658708956215</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.3158377466788958</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.27366437255342296</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.3072826494142899</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.28027406665443994</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.27454228345559556</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.28004051092660009</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0.29221144931680137</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.26147292160914259</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0.29836296017017394</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0.30832698472020587</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0.30811068840317662</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0.3083147054890048</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0.29310764278763379</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0.27478078150886981</v>
+      </c>
+      <c r="X21" s="9">
+        <v>0.25661171163179708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="9">
+        <v>7.8481735159817337E-2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>8.2445459157787934E-2</v>
+      </c>
+      <c r="D22" s="9">
+        <v>8.5616438356164379E-2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>9.3399750933997508E-2</v>
+      </c>
+      <c r="F22" s="9">
+        <v>8.5616438356164379E-2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>8.5616438356164393E-2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>9.1324200913242018E-2</v>
+      </c>
+      <c r="I22" s="9">
+        <v>8.9473034678514141E-2</v>
+      </c>
+      <c r="J22" s="9">
+        <v>8.6198863106886583E-2</v>
+      </c>
+      <c r="K22" s="9">
+        <v>7.8030171666377671E-2</v>
+      </c>
+      <c r="L22" s="9">
+        <v>8.5844748858447492E-2</v>
+      </c>
+      <c r="M22" s="9">
+        <v>8.6387757620634345E-2</v>
+      </c>
+      <c r="N22" s="9">
+        <v>7.8909159775266718E-2</v>
+      </c>
+      <c r="O22" s="9">
+        <v>7.6409137310276112E-2</v>
+      </c>
+      <c r="P22" s="9">
+        <v>9.2156012906219775E-2</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>9.3926269137792104E-2</v>
+      </c>
+      <c r="R22" s="9">
+        <v>9.4105720328812301E-2</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0.10329209014582412</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0.10488047400581937</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0.10252789154074284</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0.10319634703196348</v>
+      </c>
+      <c r="W22" s="9">
+        <v>9.229849893151984E-2</v>
+      </c>
+      <c r="X22" s="9">
+        <v>9.7263904351614319E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.11415525114155251</v>
+      </c>
+      <c r="C23" s="9">
+        <v>9.1324200913242018E-2</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="F23" s="9">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="G23" s="9">
+        <v>7.6103500761035003E-2</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.14269406392694062</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.15220700152207001</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.15492498369210697</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.14586504312531712</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.10056534029136768</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0.17371451260671036</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.20501351225421674</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0.17123287671232879</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0.19216133942161343</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.20928462709284629</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0.16590563165905634</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0.20243531202435316</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0.18569254185692544</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0.19025875190258754</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0.18809672063096722</v>
+      </c>
+      <c r="X23" s="9">
+        <v>0.19458281444582817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A30" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J31" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K31" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L31" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M31" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N31" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O31" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P31" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R31" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S31" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T31" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U31" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V31" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W31" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X31" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="10">
+        <v>66.12</v>
+      </c>
+      <c r="C32" s="10">
+        <v>71.05</v>
+      </c>
+      <c r="D32" s="10">
+        <v>65.410000000000011</v>
+      </c>
+      <c r="E32" s="10">
+        <v>65.339999999999989</v>
+      </c>
+      <c r="F32" s="10">
+        <v>63.870000000000005</v>
+      </c>
+      <c r="G32" s="10">
+        <v>57.8</v>
+      </c>
+      <c r="H32" s="10">
+        <v>62.13</v>
+      </c>
+      <c r="I32" s="10">
+        <v>66.430000000000007</v>
+      </c>
+      <c r="J32" s="10">
+        <v>67.040000000000006</v>
+      </c>
+      <c r="K32" s="10">
+        <v>66.669999999999987</v>
+      </c>
+      <c r="L32" s="10">
+        <v>66.050000000000011</v>
+      </c>
+      <c r="M32" s="10">
+        <v>62.88</v>
+      </c>
+      <c r="N32" s="10">
+        <v>68.13000000000001</v>
+      </c>
+      <c r="O32" s="10">
+        <v>68.69</v>
+      </c>
+      <c r="P32" s="10">
+        <v>70.079999999999984</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>66.070000000000007</v>
+      </c>
+      <c r="R32" s="10">
+        <v>61.099999999999994</v>
+      </c>
+      <c r="S32" s="10">
+        <v>60.15</v>
+      </c>
+      <c r="T32" s="10">
+        <v>66.290000000000006</v>
+      </c>
+      <c r="U32" s="10">
+        <v>70.570000000000022</v>
+      </c>
+      <c r="V32" s="10">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="W32" s="10">
+        <v>63.1</v>
+      </c>
+      <c r="X32" s="10">
+        <v>62.27</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>70.899999999999991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="H33" s="11">
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1.18</v>
+      </c>
+      <c r="J33" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="K33" s="11">
+        <v>1.24</v>
+      </c>
+      <c r="L33" s="11">
+        <v>1.28</v>
+      </c>
+      <c r="M33" s="11">
+        <v>1.39</v>
+      </c>
+      <c r="N33" s="11">
+        <v>1.54</v>
+      </c>
+      <c r="O33" s="11">
+        <v>1.62</v>
+      </c>
+      <c r="P33" s="11">
+        <v>1.69</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>1.6300000000000001</v>
+      </c>
+      <c r="R33" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="S33" s="11">
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="T33" s="11">
+        <v>1.8199999999999998</v>
+      </c>
+      <c r="U33" s="11">
+        <v>1.88</v>
+      </c>
+      <c r="V33" s="11">
+        <v>1.99</v>
+      </c>
+      <c r="W33" s="11">
+        <v>2.0700000000000003</v>
+      </c>
+      <c r="X33" s="11">
+        <v>2.0700000000000003</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>2.0700000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="L34" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="O34" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="R34" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="S34" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="T34" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="U34" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="V34" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="W34" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="X34" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="11">
+        <v>36.83</v>
+      </c>
+      <c r="C35" s="11">
+        <v>41.31</v>
+      </c>
+      <c r="D35" s="11">
+        <v>35.17</v>
+      </c>
+      <c r="E35" s="11">
+        <v>34.76</v>
+      </c>
+      <c r="F35" s="11">
+        <v>33.75</v>
+      </c>
+      <c r="G35" s="11">
+        <v>31.23</v>
+      </c>
+      <c r="H35" s="11">
+        <v>30.96</v>
+      </c>
+      <c r="I35" s="11">
+        <v>35.25</v>
+      </c>
+      <c r="J35" s="11">
+        <v>36.04</v>
+      </c>
+      <c r="K35" s="11">
+        <v>35.72</v>
+      </c>
+      <c r="L35" s="11">
+        <v>36.06</v>
+      </c>
+      <c r="M35" s="11">
+        <v>32.39</v>
+      </c>
+      <c r="N35" s="11">
+        <v>38.6</v>
+      </c>
+      <c r="O35" s="11">
+        <v>38.46</v>
+      </c>
+      <c r="P35" s="11">
+        <v>38.04</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>38.26</v>
+      </c>
+      <c r="R35" s="11">
+        <v>34.619999999999997</v>
+      </c>
+      <c r="S35" s="11">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="T35" s="11">
+        <v>34.99</v>
+      </c>
+      <c r="U35" s="11">
+        <v>38.04</v>
+      </c>
+      <c r="V35" s="11">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="W35" s="11">
+        <v>36.96</v>
+      </c>
+      <c r="X35" s="11">
+        <v>30.99</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>38.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="11">
+        <v>26.45</v>
+      </c>
+      <c r="C36" s="11">
+        <v>26.81</v>
+      </c>
+      <c r="D36" s="11">
+        <v>27.23</v>
+      </c>
+      <c r="E36" s="11">
+        <v>27.49</v>
+      </c>
+      <c r="F36" s="11">
+        <v>26.96</v>
+      </c>
+      <c r="G36" s="11">
+        <v>23.34</v>
+      </c>
+      <c r="H36" s="11">
+        <v>27.82</v>
+      </c>
+      <c r="I36" s="11">
+        <v>27.92</v>
+      </c>
+      <c r="J36" s="11">
+        <v>27.7</v>
+      </c>
+      <c r="K36" s="11">
+        <v>27.69</v>
+      </c>
+      <c r="L36" s="11">
+        <v>26.34</v>
+      </c>
+      <c r="M36" s="11">
+        <v>26.71</v>
+      </c>
+      <c r="N36" s="11">
+        <v>25.44</v>
+      </c>
+      <c r="O36" s="11">
+        <v>25.99</v>
+      </c>
+      <c r="P36" s="11">
+        <v>27.56</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>23.09</v>
+      </c>
+      <c r="R36" s="11">
+        <v>21.15</v>
+      </c>
+      <c r="S36" s="11">
+        <v>20.38</v>
+      </c>
+      <c r="T36" s="11">
+        <v>25.51</v>
+      </c>
+      <c r="U36" s="11">
+        <v>26.42</v>
+      </c>
+      <c r="V36" s="11">
+        <v>24.02</v>
+      </c>
+      <c r="W36" s="11">
+        <v>19.36</v>
+      </c>
+      <c r="X36" s="11">
+        <v>23.95</v>
+      </c>
+      <c r="Y36" s="11">
+        <v>24.19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="E37" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="H37" s="11">
+        <v>1.39</v>
+      </c>
+      <c r="I37" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="J37" s="11">
+        <v>1.28</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1.24</v>
+      </c>
+      <c r="L37" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="M37" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="N37" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="O37" s="11">
+        <v>1.28</v>
+      </c>
+      <c r="P37" s="11">
+        <v>1.35</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="R37" s="11">
+        <v>1.28</v>
+      </c>
+      <c r="S37" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="T37" s="11">
+        <v>1.28</v>
+      </c>
+      <c r="U37" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="V37" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="W37" s="11">
+        <v>1.22</v>
+      </c>
+      <c r="X37" s="11">
+        <v>1.22</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="R38" s="11">
+        <v>1.33</v>
+      </c>
+      <c r="S38" s="11">
+        <v>1.68</v>
+      </c>
+      <c r="T38" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="U38" s="11">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="V38" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="W38" s="11">
+        <v>2.84</v>
+      </c>
+      <c r="X38" s="11">
+        <v>3.37</v>
+      </c>
+      <c r="Y38" s="11">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="M39" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="O39" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="P39" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="R39" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="S39" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="T39" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="U39" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="V39" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W39" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="X39" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A43" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C44" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D44" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E44" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F44" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G44" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H44" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I44" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J44" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K44" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L44" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M44" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N44" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O44" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P44" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R44" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S44" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T44" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U44" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V44" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W44" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X44" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A45" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="10">
+        <v>67.518999999999991</v>
+      </c>
+      <c r="C45" s="10">
+        <v>72.433000000000007</v>
+      </c>
+      <c r="D45" s="10">
+        <v>67.128999999999991</v>
+      </c>
+      <c r="E45" s="10">
+        <v>67.389999999999986</v>
+      </c>
+      <c r="F45" s="10">
+        <v>65.584999999999994</v>
+      </c>
+      <c r="G45" s="10">
+        <v>59.648000000000003</v>
+      </c>
+      <c r="H45" s="10">
+        <v>64.06</v>
+      </c>
+      <c r="I45" s="10">
+        <v>67.927000000000007</v>
+      </c>
+      <c r="J45" s="10">
+        <v>68.936000000000021</v>
+      </c>
+      <c r="K45" s="10">
+        <v>68.458999999999989</v>
+      </c>
+      <c r="L45" s="10">
+        <v>67.814999999999998</v>
+      </c>
+      <c r="M45" s="10">
+        <v>64.625</v>
+      </c>
+      <c r="N45" s="10">
+        <v>69.836999999999989</v>
+      </c>
+      <c r="O45" s="10">
+        <v>70.210999999999999</v>
+      </c>
+      <c r="P45" s="10">
+        <v>71.742999999999995</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>67.682000000000002</v>
+      </c>
+      <c r="R45" s="10">
+        <v>63.169000000000004</v>
+      </c>
+      <c r="S45" s="10">
+        <v>63.094000000000001</v>
+      </c>
+      <c r="T45" s="10">
+        <v>69.108999999999995</v>
+      </c>
+      <c r="U45" s="10">
+        <v>73.478999999999999</v>
+      </c>
+      <c r="V45" s="10">
+        <v>71.653000000000006</v>
+      </c>
+      <c r="W45" s="10">
+        <v>66.040999999999997</v>
+      </c>
+      <c r="X45" s="10">
+        <v>65.668000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="11">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0.88100000000000012</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="G46" s="11">
+        <v>1.024</v>
+      </c>
+      <c r="H46" s="11">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="I46" s="11">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="J46" s="11">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="K46" s="11">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="L46" s="11">
+        <v>1.2790000000000001</v>
+      </c>
+      <c r="M46" s="11">
+        <v>1.39</v>
+      </c>
+      <c r="N46" s="11">
+        <v>1.538</v>
+      </c>
+      <c r="O46" s="11">
+        <v>1.625</v>
+      </c>
+      <c r="P46" s="11">
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="R46" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="S46" s="11">
+        <v>1.8589999999999998</v>
+      </c>
+      <c r="T46" s="11">
+        <v>1.827</v>
+      </c>
+      <c r="U46" s="11">
+        <v>1.879</v>
+      </c>
+      <c r="V46" s="11">
+        <v>1.9909999999999999</v>
+      </c>
+      <c r="W46" s="11">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="X46" s="11">
+        <v>2.0789999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="11">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="L47" s="11">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="O47" s="11">
+        <v>0.755</v>
+      </c>
+      <c r="P47" s="11">
+        <v>0.503</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>0.629</v>
+      </c>
+      <c r="R47" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="S47" s="11">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="T47" s="11">
+        <v>0.621</v>
+      </c>
+      <c r="U47" s="11">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="V47" s="11">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="W47" s="11">
+        <v>0.505</v>
+      </c>
+      <c r="X47" s="11">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="11">
+        <v>38.230000000000004</v>
+      </c>
+      <c r="C48" s="11">
+        <v>42.683999999999997</v>
+      </c>
+      <c r="D48" s="11">
+        <v>36.878</v>
+      </c>
+      <c r="E48" s="11">
+        <v>36.81</v>
+      </c>
+      <c r="F48" s="11">
+        <v>35.467999999999996</v>
+      </c>
+      <c r="G48" s="11">
+        <v>33.085999999999999</v>
+      </c>
+      <c r="H48" s="11">
+        <v>32.883000000000003</v>
+      </c>
+      <c r="I48" s="11">
+        <v>36.737000000000002</v>
+      </c>
+      <c r="J48" s="11">
+        <v>37.935000000000002</v>
+      </c>
+      <c r="K48" s="11">
+        <v>37.507999999999996</v>
+      </c>
+      <c r="L48" s="11">
+        <v>37.824999999999996</v>
+      </c>
+      <c r="M48" s="11">
+        <v>34.133000000000003</v>
+      </c>
+      <c r="N48" s="11">
+        <v>40.305</v>
+      </c>
+      <c r="O48" s="11">
+        <v>39.967999999999996</v>
+      </c>
+      <c r="P48" s="11">
+        <v>39.701000000000001</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>39.881</v>
+      </c>
+      <c r="R48" s="11">
+        <v>36.689</v>
+      </c>
+      <c r="S48" s="11">
+        <v>37.033000000000001</v>
+      </c>
+      <c r="T48" s="11">
+        <v>37.802999999999997</v>
+      </c>
+      <c r="U48" s="11">
+        <v>40.961999999999996</v>
+      </c>
+      <c r="V48" s="11">
+        <v>41.021999999999998</v>
+      </c>
+      <c r="W48" s="11">
+        <v>39.894999999999996</v>
+      </c>
+      <c r="X48" s="11">
+        <v>33.835999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="11">
+        <v>26.446000000000002</v>
+      </c>
+      <c r="C49" s="11">
+        <v>26.811</v>
+      </c>
+      <c r="D49" s="11">
+        <v>27.234000000000002</v>
+      </c>
+      <c r="E49" s="11">
+        <v>27.486999999999998</v>
+      </c>
+      <c r="F49" s="11">
+        <v>26.957999999999998</v>
+      </c>
+      <c r="G49" s="11">
+        <v>23.341000000000001</v>
+      </c>
+      <c r="H49" s="11">
+        <v>27.818999999999999</v>
+      </c>
+      <c r="I49" s="11">
+        <v>27.925000000000001</v>
+      </c>
+      <c r="J49" s="11">
+        <v>27.7</v>
+      </c>
+      <c r="K49" s="11">
+        <v>27.686</v>
+      </c>
+      <c r="L49" s="11">
+        <v>26.338999999999999</v>
+      </c>
+      <c r="M49" s="11">
+        <v>26.71</v>
+      </c>
+      <c r="N49" s="11">
+        <v>25.440999999999999</v>
+      </c>
+      <c r="O49" s="11">
+        <v>25.99</v>
+      </c>
+      <c r="P49" s="11">
+        <v>27.556999999999999</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>23.088999999999999</v>
+      </c>
+      <c r="R49" s="11">
+        <v>21.146000000000001</v>
+      </c>
+      <c r="S49" s="11">
+        <v>20.376000000000001</v>
+      </c>
+      <c r="T49" s="11">
+        <v>25.513000000000002</v>
+      </c>
+      <c r="U49" s="11">
+        <v>26.417999999999999</v>
+      </c>
+      <c r="V49" s="11">
+        <v>24.024999999999999</v>
+      </c>
+      <c r="W49" s="11">
+        <v>19.364000000000001</v>
+      </c>
+      <c r="X49" s="11">
+        <v>24.152999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="11">
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1.194</v>
+      </c>
+      <c r="D50" s="11">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1.198</v>
+      </c>
+      <c r="F50" s="11">
+        <v>1.212</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1.298</v>
+      </c>
+      <c r="H50" s="11">
+        <v>1.391</v>
+      </c>
+      <c r="I50" s="11">
+        <v>1.294</v>
+      </c>
+      <c r="J50" s="11">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="K50" s="11">
+        <v>1.2429999999999999</v>
+      </c>
+      <c r="L50" s="11">
+        <v>1.214</v>
+      </c>
+      <c r="M50" s="11">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="N50" s="11">
+        <v>1.2530000000000001</v>
+      </c>
+      <c r="O50" s="11">
+        <v>1.2830000000000001</v>
+      </c>
+      <c r="P50" s="11">
+        <v>1.349</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="R50" s="11">
+        <v>1.282</v>
+      </c>
+      <c r="S50" s="11">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="T50" s="11">
+        <v>1.2779999999999998</v>
+      </c>
+      <c r="U50" s="11">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="V50" s="11">
+        <v>1.2529999999999999</v>
+      </c>
+      <c r="W50" s="11">
+        <v>1.224</v>
+      </c>
+      <c r="X50" s="11">
+        <v>1.2150000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D51" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E51" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F51" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G51" s="11">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H51" s="11">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I51" s="11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J51" s="11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K51" s="11">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="L51" s="11">
+        <v>9.4E-2</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="N51" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="O51" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P51" s="11">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>1.119</v>
+      </c>
+      <c r="R51" s="11">
+        <v>1.333</v>
+      </c>
+      <c r="S51" s="11">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="T51" s="11">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="U51" s="11">
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="V51" s="11">
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="W51" s="11">
+        <v>2.8420000000000001</v>
+      </c>
+      <c r="X51" s="11">
+        <v>3.8580000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C52" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D52" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E52" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F52" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G52" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H52" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I52" s="11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J52" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K52" s="11">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L52" s="11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M52" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N52" s="11">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="O52" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="P52" s="11">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="R52" s="11">
+        <v>0.109</v>
+      </c>
+      <c r="S52" s="11">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="T52" s="11">
+        <v>0.122</v>
+      </c>
+      <c r="U52" s="11">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="V52" s="11">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="W52" s="11">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="X52" s="11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A56" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A57" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D57" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E57" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F57" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G57" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H57" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I57" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J57" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K57" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L57" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M57" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N57" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O57" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P57" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R57" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S57" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T57" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U57" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V57" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W57" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X57" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Y57" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="C58" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="I58" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="J58" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L58" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="N58" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="O58" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="P58" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="R58" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="S58" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="T58" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="U58" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="V58" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="W58" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="X58" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="Y58" s="11">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="C59" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="D59" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L59" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="O59" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="P59" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="R59" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="S59" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="T59" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="U59" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="V59" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="W59" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="X59" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="Y59" s="11">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="11">
+        <v>12.92</v>
+      </c>
+      <c r="C60" s="11">
+        <v>12.97</v>
+      </c>
+      <c r="D60" s="11">
+        <v>12.98</v>
+      </c>
+      <c r="E60" s="11">
+        <v>13</v>
+      </c>
+      <c r="F60" s="11">
+        <v>13</v>
+      </c>
+      <c r="G60" s="11">
+        <v>13.04</v>
+      </c>
+      <c r="H60" s="11">
+        <v>13.04</v>
+      </c>
+      <c r="I60" s="11">
+        <v>13.15</v>
+      </c>
+      <c r="J60" s="11">
+        <v>13.16</v>
+      </c>
+      <c r="K60" s="11">
+        <v>13.21</v>
+      </c>
+      <c r="L60" s="11">
+        <v>13.27</v>
+      </c>
+      <c r="M60" s="11">
+        <v>13.31</v>
+      </c>
+      <c r="N60" s="11">
+        <v>13.35</v>
+      </c>
+      <c r="O60" s="11">
+        <v>13.36</v>
+      </c>
+      <c r="P60" s="11">
+        <v>13.29</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>13.35</v>
+      </c>
+      <c r="R60" s="11">
+        <v>14.28</v>
+      </c>
+      <c r="S60" s="11">
+        <v>14.83</v>
+      </c>
+      <c r="T60" s="11">
+        <v>14.98</v>
+      </c>
+      <c r="U60" s="11">
+        <v>15.01</v>
+      </c>
+      <c r="V60" s="11">
+        <v>15.03</v>
+      </c>
+      <c r="W60" s="11">
+        <v>15.05</v>
+      </c>
+      <c r="X60" s="11">
+        <v>15.07</v>
+      </c>
+      <c r="Y60" s="11">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="C61" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="D61" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="E61" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="F61" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="G61" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="H61" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="I61" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="J61" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="K61" s="11">
+        <v>3.24</v>
+      </c>
+      <c r="L61" s="11">
+        <v>3.25</v>
+      </c>
+      <c r="M61" s="11">
+        <v>3.28</v>
+      </c>
+      <c r="N61" s="11">
+        <v>3.28</v>
+      </c>
+      <c r="O61" s="11">
+        <v>3.28</v>
+      </c>
+      <c r="P61" s="11">
+        <v>3.31</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>3.33</v>
+      </c>
+      <c r="R61" s="11">
+        <v>3.33</v>
+      </c>
+      <c r="S61" s="11">
+        <v>3.33</v>
+      </c>
+      <c r="T61" s="11">
+        <v>3.33</v>
+      </c>
+      <c r="U61" s="11">
+        <v>3.33</v>
+      </c>
+      <c r="V61" s="11">
+        <v>3.33</v>
+      </c>
+      <c r="W61" s="11">
+        <v>2.96</v>
+      </c>
+      <c r="X61" s="11">
+        <v>2.96</v>
+      </c>
+      <c r="Y61" s="11">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C62" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="D62" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="E62" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="F62" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="I62" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="J62" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="K62" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="L62" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="N62" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="O62" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="P62" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="R62" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="S62" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="T62" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="U62" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="V62" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="W62" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="X62" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Y62" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="C63" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="D63" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E63" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F63" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="J63" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="K63" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="L63" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="M63" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="N63" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="O63" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="P63" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="Q63" s="11">
+        <v>1.39</v>
+      </c>
+      <c r="R63" s="11">
+        <v>1.66</v>
+      </c>
+      <c r="S63" s="11">
+        <v>1.91</v>
+      </c>
+      <c r="T63" s="11">
+        <v>2.17</v>
+      </c>
+      <c r="U63" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="V63" s="11">
+        <v>2.97</v>
+      </c>
+      <c r="W63" s="11">
+        <v>3.65</v>
+      </c>
+      <c r="X63" s="11">
+        <v>4.34</v>
+      </c>
+      <c r="Y63" s="11">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="11">
+        <v>0</v>
+      </c>
+      <c r="C64" s="11">
+        <v>0</v>
+      </c>
+      <c r="D64" s="11">
+        <v>0</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="I64" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="J64" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="K64" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="L64" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="M64" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="N64" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="O64" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="P64" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="R64" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="S64" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="T64" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="U64" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="V64" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="W64" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="X64" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="Y64" s="11">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A67" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A68" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C68" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D68" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E68" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F68" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G68" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H68" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I68" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J68" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K68" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L68" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M68" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N68" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O68" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P68" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q68" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R68" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S68" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T68" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U68" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V68" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W68" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X68" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Y68" s="8">
+        <v>2023</v>
+      </c>
+      <c r="Z68" s="8">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="C69" s="11">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D69" s="11">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E69" s="11">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0.1845</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0.188</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K69" s="11">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="L69" s="11">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="M69" s="11">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="N69" s="11">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="O69" s="11">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="P69" s="11">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="Q69" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="R69" s="11">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="S69" s="11">
+        <v>0.24149999999999999</v>
+      </c>
+      <c r="T69" s="11">
+        <v>0.24149999999999999</v>
+      </c>
+      <c r="U69" s="11">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="V69" s="11">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="W69" s="11">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="X69" s="11">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="Y69" s="11">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>0.22850000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="11">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C70" s="11">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D70" s="11">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E70" s="11">
+        <v>0.185</v>
+      </c>
+      <c r="F70" s="11">
+        <v>0.122</v>
+      </c>
+      <c r="G70" s="11">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="I70" s="11">
+        <v>0.156</v>
+      </c>
+      <c r="J70" s="11">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="K70" s="11">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="L70" s="11">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="M70" s="11">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="N70" s="11">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="O70" s="11">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="P70" s="11">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="Q70" s="11">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="R70" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="S70" s="11">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="T70" s="11">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="U70" s="11">
+        <v>0.224</v>
+      </c>
+      <c r="V70" s="11">
+        <v>0.224</v>
+      </c>
+      <c r="W70" s="11">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="X70" s="11">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="Y70" s="11">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="Z70" s="11">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="11">
+        <v>13.24</v>
+      </c>
+      <c r="C71" s="11">
+        <v>13.284000000000001</v>
+      </c>
+      <c r="D71" s="11">
+        <v>13.295000000000002</v>
+      </c>
+      <c r="E71" s="11">
+        <v>13.311000000000002</v>
+      </c>
+      <c r="F71" s="11">
+        <v>13.317000000000002</v>
+      </c>
+      <c r="G71" s="11">
+        <v>13.356000000000002</v>
+      </c>
+      <c r="H71" s="11">
+        <v>13.355</v>
+      </c>
+      <c r="I71" s="11">
+        <v>13.465</v>
+      </c>
+      <c r="J71" s="11">
+        <v>13.475</v>
+      </c>
+      <c r="K71" s="11">
+        <v>13.522000000000002</v>
+      </c>
+      <c r="L71" s="11">
+        <v>13.723000000000001</v>
+      </c>
+      <c r="M71" s="11">
+        <v>13.77</v>
+      </c>
+      <c r="N71" s="11">
+        <v>13.802999999999999</v>
+      </c>
+      <c r="O71" s="11">
+        <v>13.817</v>
+      </c>
+      <c r="P71" s="11">
+        <v>13.744</v>
+      </c>
+      <c r="Q71" s="11">
+        <v>13.815</v>
+      </c>
+      <c r="R71" s="11">
+        <v>14.805999999999997</v>
+      </c>
+      <c r="S71" s="11">
+        <v>15.353</v>
+      </c>
+      <c r="T71" s="11">
+        <v>15.541999999999998</v>
+      </c>
+      <c r="U71" s="11">
+        <v>15.573999999999998</v>
+      </c>
+      <c r="V71" s="11">
+        <v>15.593999999999999</v>
+      </c>
+      <c r="W71" s="11">
+        <v>15.611999999999998</v>
+      </c>
+      <c r="X71" s="11">
+        <v>16.568000000000001</v>
+      </c>
+      <c r="Y71" s="11">
+        <v>16.782</v>
+      </c>
+      <c r="Z71" s="11">
+        <v>16.782</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="C72" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="D72" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="E72" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="F72" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="G72" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="H72" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="I72" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="J72" s="11">
+        <v>3.22</v>
+      </c>
+      <c r="K72" s="11">
+        <v>3.238</v>
+      </c>
+      <c r="L72" s="11">
+        <v>3.2530000000000001</v>
+      </c>
+      <c r="M72" s="11">
+        <v>3.278</v>
+      </c>
+      <c r="N72" s="11">
+        <v>3.278</v>
+      </c>
+      <c r="O72" s="11">
+        <v>3.278</v>
+      </c>
+      <c r="P72" s="11">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="Q72" s="11">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="R72" s="11">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="S72" s="11">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="T72" s="11">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="U72" s="11">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="V72" s="11">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="W72" s="11">
+        <v>2.96</v>
+      </c>
+      <c r="X72" s="11">
+        <v>2.96</v>
+      </c>
+      <c r="Y72" s="11">
+        <v>2.96</v>
+      </c>
+      <c r="Z72" s="11">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="11">
+        <v>0.502</v>
+      </c>
+      <c r="C73" s="11">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="D73" s="11">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="E73" s="11">
+        <v>0.47649999999999998</v>
+      </c>
+      <c r="F73" s="11">
+        <v>0.52049999999999996</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0.47949999999999998</v>
+      </c>
+      <c r="I73" s="11">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="K73" s="11">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="L73" s="11">
+        <v>0.45099999999999996</v>
+      </c>
+      <c r="M73" s="11">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="N73" s="11">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="O73" s="11">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="P73" s="11">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="Q73" s="11">
+        <v>0.53699999999999992</v>
+      </c>
+      <c r="R73" s="11">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="S73" s="11">
+        <v>0.47650000000000003</v>
+      </c>
+      <c r="T73" s="11">
+        <v>0.47350000000000003</v>
+      </c>
+      <c r="U73" s="11">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="V73" s="11">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="W73" s="11">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="X73" s="11">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="Y73" s="11">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="Z73" s="11">
+        <v>0.54049999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" s="11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C74" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D74" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E74" s="11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F74" s="11">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G74" s="11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="I74" s="11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J74" s="11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K74" s="11">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="L74" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="M74" s="11">
+        <v>0.222</v>
+      </c>
+      <c r="N74" s="11">
+        <v>0.434</v>
+      </c>
+      <c r="O74" s="11">
+        <v>0.747</v>
+      </c>
+      <c r="P74" s="11">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="Q74" s="11">
+        <v>1.36</v>
+      </c>
+      <c r="R74" s="11">
+        <v>1.617</v>
+      </c>
+      <c r="S74" s="11">
+        <v>1.86</v>
+      </c>
+      <c r="T74" s="11">
+        <v>2.117</v>
+      </c>
+      <c r="U74" s="11">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="V74" s="11">
+        <v>2.875</v>
+      </c>
+      <c r="W74" s="11">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="X74" s="11">
+        <v>4.5279999999999996</v>
+      </c>
+      <c r="Y74" s="11">
+        <v>6.0938289999999995</v>
+      </c>
+      <c r="Z74" s="11">
+        <v>7.7938289999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C75" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D75" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E75" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F75" s="11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G75" s="11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H75" s="11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I75" s="11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J75" s="11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K75" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L75" s="11">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M75" s="11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="N75" s="11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O75" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="P75" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="Q75" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="R75" s="11">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="S75" s="11">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T75" s="11">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="U75" s="11">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="V75" s="11">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="W75" s="11">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="X75" s="11">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Y75" s="11">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Z75" s="11">
+        <v>0.1018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A85" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A86" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="8">
+        <v>2001</v>
+      </c>
+      <c r="E86" s="8">
+        <v>2002</v>
+      </c>
+      <c r="F86" s="8">
+        <v>2003</v>
+      </c>
+      <c r="G86" s="8">
+        <v>2004</v>
+      </c>
+      <c r="H86" s="8">
+        <v>2005</v>
+      </c>
+      <c r="I86" s="8">
+        <v>2006</v>
+      </c>
+      <c r="J86" s="8">
+        <v>2007</v>
+      </c>
+      <c r="K86" s="8">
+        <v>2008</v>
+      </c>
+      <c r="L86" s="8">
+        <v>2009</v>
+      </c>
+      <c r="M86" s="8">
+        <v>2010</v>
+      </c>
+      <c r="N86" s="8">
+        <v>2011</v>
+      </c>
+      <c r="O86" s="8">
+        <v>2012</v>
+      </c>
+      <c r="P86" s="8">
+        <v>2013</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>2014</v>
+      </c>
+      <c r="R86" s="8">
+        <v>2015</v>
+      </c>
+      <c r="S86" s="8">
+        <v>2016</v>
+      </c>
+      <c r="T86" s="8">
+        <v>2017</v>
+      </c>
+      <c r="U86" s="8">
+        <v>2018</v>
+      </c>
+      <c r="V86" s="8">
+        <v>2019</v>
+      </c>
+      <c r="W86" s="8">
+        <v>2020</v>
+      </c>
+      <c r="X86" s="8">
+        <v>2021</v>
+      </c>
+      <c r="Y86" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Z86" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="11">
+        <v>31.4</v>
+      </c>
+      <c r="D87" s="11">
+        <v>34.5</v>
+      </c>
+      <c r="E87" s="11">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F87" s="11">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G87" s="11">
+        <v>27.8</v>
+      </c>
+      <c r="H87" s="11">
         <v>32</v>
       </c>
-      <c r="C2">
-        <v>0.7</v>
-      </c>
-      <c r="D2">
-        <v>2.4</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>6.7</v>
-      </c>
-      <c r="G2">
-        <v>0.26</v>
-      </c>
-      <c r="H2">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I87" s="11">
+        <v>31.1</v>
+      </c>
+      <c r="J87" s="11">
+        <v>36.9</v>
+      </c>
+      <c r="K87" s="11">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="L87" s="11">
+        <v>33.5</v>
+      </c>
+      <c r="M87" s="11">
+        <v>32.9</v>
+      </c>
+      <c r="N87" s="11">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="O87" s="11">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="P87" s="11">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Q87" s="11">
         <v>34</v>
       </c>
-      <c r="C3">
-        <v>21.5</v>
-      </c>
-      <c r="D3">
-        <v>21.4</v>
-      </c>
-      <c r="E3">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>21.4</v>
-      </c>
-      <c r="G3">
-        <v>0.46</v>
-      </c>
-      <c r="H3">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>257.3</v>
-      </c>
-      <c r="D4">
-        <v>192.6</v>
-      </c>
-      <c r="E4">
-        <v>217.5</v>
-      </c>
-      <c r="F4">
-        <v>192.1</v>
-      </c>
-      <c r="G4">
-        <v>0.67</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="R87" s="11">
+        <v>35.1</v>
+      </c>
+      <c r="S87" s="11">
+        <v>30.2</v>
+      </c>
+      <c r="T87" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="U87" s="11">
+        <v>32.6</v>
+      </c>
+      <c r="V87" s="11">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="W87" s="11">
+        <v>32.5</v>
+      </c>
+      <c r="X87" s="11">
+        <v>29.1</v>
+      </c>
+      <c r="Y87" s="11">
+        <v>29.7</v>
+      </c>
+      <c r="Z87" s="11">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
         <v>47</v>
       </c>
-      <c r="C5">
-        <v>4.3</v>
-      </c>
-      <c r="E5">
-        <v>4.5</v>
-      </c>
-      <c r="G5">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
-        <v>33</v>
-      </c>
-      <c r="D6">
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="11">
+        <v>24.3</v>
+      </c>
+      <c r="D88" s="11">
+        <v>24.1</v>
+      </c>
+      <c r="E88" s="11">
+        <v>27.8</v>
+      </c>
+      <c r="F88" s="11">
+        <v>30.1</v>
+      </c>
+      <c r="G88" s="11">
+        <v>27.1</v>
+      </c>
+      <c r="H88" s="11">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="I88" s="11">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="J88" s="11">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="K88" s="11">
         <v>31.6</v>
       </c>
-      <c r="E6">
-        <v>35.9</v>
-      </c>
-      <c r="F6">
-        <v>35.6</v>
-      </c>
-      <c r="G6">
-        <v>0.32</v>
-      </c>
-      <c r="H6">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
-        <v>10.8</v>
-      </c>
-      <c r="D7">
-        <v>10.8</v>
-      </c>
-      <c r="E7">
-        <v>10.9</v>
-      </c>
-      <c r="F7">
-        <v>10.9</v>
-      </c>
-      <c r="G7">
-        <v>0.77</v>
-      </c>
-      <c r="H7">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
-        <v>6.7</v>
-      </c>
-      <c r="D8">
-        <v>8.4</v>
-      </c>
-      <c r="E8">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="F8">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="G8">
-        <v>0.11</v>
-      </c>
-      <c r="H8">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>28.2</v>
-      </c>
-      <c r="D9">
-        <v>27.9</v>
-      </c>
-      <c r="E9">
-        <v>20.6</v>
-      </c>
-      <c r="F9">
-        <v>20.3</v>
-      </c>
-      <c r="G9">
-        <v>0.25</v>
-      </c>
-      <c r="H9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>22.3</v>
-      </c>
-      <c r="D10">
-        <v>23.1</v>
-      </c>
-      <c r="E10">
-        <v>20.6</v>
-      </c>
-      <c r="F10">
-        <v>20.5</v>
-      </c>
-      <c r="G10">
-        <v>0.31</v>
-      </c>
-      <c r="H10">
-        <v>0.32</v>
+      <c r="L88" s="11">
+        <v>31.4</v>
+      </c>
+      <c r="M88" s="11">
+        <v>33.4</v>
+      </c>
+      <c r="N88" s="11">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="O88" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="P88" s="11">
+        <v>29.9</v>
+      </c>
+      <c r="Q88" s="11">
+        <v>28.5</v>
+      </c>
+      <c r="R88" s="11">
+        <v>34</v>
+      </c>
+      <c r="S88" s="11">
+        <v>34.1</v>
+      </c>
+      <c r="T88" s="11">
+        <v>36.5</v>
+      </c>
+      <c r="U88" s="11">
+        <v>31</v>
+      </c>
+      <c r="V88" s="11">
+        <v>29.5</v>
+      </c>
+      <c r="W88" s="11">
+        <v>27</v>
+      </c>
+      <c r="X88" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="Y88" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="Z88" s="11">
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87996BF-0EC7-4D8E-A235-8C1CA306C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742F8D15-EBDC-4602-AC38-08C575898BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742F8D15-EBDC-4602-AC38-08C575898BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C929789-13DE-4906-AB44-D28ED1F5DE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C929789-13DE-4906-AB44-D28ED1F5DE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF22468-9FBA-4D56-91C1-C347F627FF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF22468-9FBA-4D56-91C1-C347F627FF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEFDD71-9796-482D-99FD-87A252E13BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEFDD71-9796-482D-99FD-87A252E13BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5725A2EE-5098-4AF9-9774-1AE78841752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5725A2EE-5098-4AF9-9774-1AE78841752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB74875-FC21-4671-8ABF-102737F38578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{407B412C-53FD-4D77-AC77-F5F94FBBECBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E85FF0D-4EAD-4F79-A627-46E2970FABD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E85FF0D-4EAD-4F79-A627-46E2970FABD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{224EF30A-E5EA-4B1D-A739-8F059D16DE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{224EF30A-E5EA-4B1D-A739-8F059D16DE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28432175-DE39-4AD5-8D39-D314C1D744FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28432175-DE39-4AD5-8D39-D314C1D744FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A6C90A2-C359-42BB-8A52-370027577B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A6C90A2-C359-42BB-8A52-370027577B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1051CCCA-ACA7-4F14-B830-CFE228696514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1051CCCA-ACA7-4F14-B830-CFE228696514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BCA6954-60EA-4D0B-BCFC-EE110D1703FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BCA6954-60EA-4D0B-BCFC-EE110D1703FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF39C40-16E2-41BF-96FD-01654F5893A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6840" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6851" uniqueCount="90">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -291,6 +291,24 @@
   <si>
     <t>CHE</t>
   </si>
+  <si>
+    <t>~tfm_ins-ts</t>
+  </si>
+  <si>
+    <t>Trd_electricity_exp</t>
+  </si>
+  <si>
+    <t>cap_bnd</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>Trd_electricity_imp</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +318,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +414,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +458,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +559,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,6 +579,16 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2460,6 +2501,56 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8516F25A-9E88-CD9C-8DBD-1E308029BAC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5073650" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2780,7 +2871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA34"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
@@ -2795,26 +2886,39 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B3" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$B$7:$C$14,2,FALSE)</f>
         <v>Current Policies</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
@@ -2822,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2833,7 +2937,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3</v>
       </c>
@@ -2844,7 +2948,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2859,7 +2963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2867,7 +2971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>6</v>
       </c>
@@ -2903,7 +3007,7 @@
         <v>158.223670995671</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>7</v>
       </c>
@@ -2911,12 +3015,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="Q14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G15" s="7">
         <v>2020</v>
       </c>
@@ -2972,7 +3076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>2.1100000000000001E-2</v>
@@ -3377,7 +3481,7 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="7:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>0.66150000000000009</v>
@@ -3406,8 +3510,74 @@
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!M$15)</f>
         <v>1.7827</v>
       </c>
+      <c r="Q34" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q35" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" s="20">
+        <v>2024</v>
+      </c>
+      <c r="S35" s="20">
+        <v>2030</v>
+      </c>
+      <c r="T35" s="20">
+        <v>2040</v>
+      </c>
+      <c r="U35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R36" s="22">
+        <v>9.7219999999999995</v>
+      </c>
+      <c r="S36" s="23">
+        <v>12.172000000000001</v>
+      </c>
+      <c r="T36" s="23">
+        <v>12.472</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V36" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q37" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="R37" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="S37" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="T37" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="U37" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="V37" s="24" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF39C40-16E2-41BF-96FD-01654F5893A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238E80AF-3C25-4DE2-B353-7C188FC3D35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6851" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6851" uniqueCount="88">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -295,16 +295,10 @@
     <t>~tfm_ins-ts</t>
   </si>
   <si>
-    <t>Trd_electricity_exp</t>
-  </si>
-  <si>
     <t>cap_bnd</t>
   </si>
   <si>
     <t>fx</t>
-  </si>
-  <si>
-    <t>Trd_electricity_imp</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
@@ -559,7 +553,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -579,16 +573,11 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2874,7 +2863,7 @@
   <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2891,16 +2880,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="A1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -3515,63 +3504,63 @@
       </c>
     </row>
     <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="Q35" s="20" t="s">
+      <c r="Q35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="20">
+      <c r="R35" s="14">
         <v>2024</v>
       </c>
-      <c r="S35" s="20">
+      <c r="S35" s="14">
         <v>2030</v>
       </c>
-      <c r="T35" s="20">
+      <c r="T35" s="14">
         <v>2040</v>
       </c>
-      <c r="U35" s="20" t="s">
+      <c r="U35" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="V35" s="20" t="s">
+      <c r="V35" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="Q36" s="21" t="s">
+      <c r="Q36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" s="16">
+        <v>9.7219999999999995</v>
+      </c>
+      <c r="S36" s="19">
+        <v>12.172000000000001</v>
+      </c>
+      <c r="T36" s="19">
+        <v>12.472</v>
+      </c>
+      <c r="U36" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="R36" s="22">
-        <v>9.7219999999999995</v>
-      </c>
-      <c r="S36" s="23">
-        <v>12.172000000000001</v>
-      </c>
-      <c r="T36" s="23">
-        <v>12.472</v>
-      </c>
-      <c r="U36" s="21" t="s">
+      <c r="V36" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="V36" s="21" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="37" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="Q37" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="R37" s="25">
+      <c r="Q37" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" s="18">
         <v>1.2</v>
       </c>
-      <c r="S37" s="26">
+      <c r="S37" s="20">
         <v>1.2</v>
       </c>
-      <c r="T37" s="26">
+      <c r="T37" s="20">
         <v>1.2</v>
       </c>
-      <c r="U37" s="24" t="s">
+      <c r="U37" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V37" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="V37" s="24" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238E80AF-3C25-4DE2-B353-7C188FC3D35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A77A33F-C797-4558-8637-0A0F577D5B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,10 +298,10 @@
     <t>cap_bnd</t>
   </si>
   <si>
-    <t>fx</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
   <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+    <t>lo</t>
   </si>
 </sst>
 </file>
@@ -2863,7 +2863,7 @@
   <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2881,7 +2881,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3540,7 +3540,7 @@
         <v>85</v>
       </c>
       <c r="V36" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="7:22" x14ac:dyDescent="0.45">
@@ -3560,7 +3560,7 @@
         <v>85</v>
       </c>
       <c r="V37" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A77A33F-C797-4558-8637-0A0F577D5B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08A99D36-BD5F-4FCA-B0B1-AF2769DC50F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,10 +298,10 @@
     <t>cap_bnd</t>
   </si>
   <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+    <t>lo</t>
   </si>
   <si>
-    <t>lo</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -573,11 +573,16 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2508,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8516F25A-9E88-CD9C-8DBD-1E308029BAC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143079E3-85C4-1948-0A9D-2BBA5EED640B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,7 +2868,7 @@
   <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2875,21 +2880,21 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -3504,63 +3509,63 @@
       </c>
     </row>
     <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="Q35" s="14" t="s">
+      <c r="Q35" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="20">
         <v>2024</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S35" s="20">
         <v>2030</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="20">
         <v>2040</v>
       </c>
-      <c r="U35" s="14" t="s">
+      <c r="U35" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="V35" s="14" t="s">
+      <c r="V35" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="Q36" s="15" t="s">
+      <c r="Q36" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="R36" s="16">
+      <c r="R36" s="22">
         <v>9.7219999999999995</v>
       </c>
-      <c r="S36" s="19">
+      <c r="S36" s="23">
         <v>12.172000000000001</v>
       </c>
-      <c r="T36" s="19">
+      <c r="T36" s="23">
         <v>12.472</v>
       </c>
-      <c r="U36" s="15" t="s">
+      <c r="U36" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="V36" s="15" t="s">
-        <v>87</v>
+      <c r="V36" s="21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="Q37" s="17" t="s">
+      <c r="Q37" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="R37" s="18">
+      <c r="R37" s="25">
         <v>1.2</v>
       </c>
-      <c r="S37" s="20">
+      <c r="S37" s="26">
         <v>1.2</v>
       </c>
-      <c r="T37" s="20">
+      <c r="T37" s="26">
         <v>1.2</v>
       </c>
-      <c r="U37" s="17" t="s">
+      <c r="U37" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="V37" s="17" t="s">
-        <v>87</v>
+      <c r="V37" s="24" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08A99D36-BD5F-4FCA-B0B1-AF2769DC50F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{632093CD-0AE5-4FE1-863A-73D16D9B1619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143079E3-85C4-1948-0A9D-2BBA5EED640B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C4A5EC-62F1-9654-5803-2E963C733944}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{632093CD-0AE5-4FE1-863A-73D16D9B1619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E28EA0-1B74-4B8B-A386-9C29F6F1FFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C4A5EC-62F1-9654-5803-2E963C733944}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7692F104-A436-CBE4-57BF-855080B0D52F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E28EA0-1B74-4B8B-A386-9C29F6F1FFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7732242D-4A3D-41D0-87F1-C6305F908727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7692F104-A436-CBE4-57BF-855080B0D52F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259C2896-38E6-ED12-388B-7F0BE0C689C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7732242D-4A3D-41D0-87F1-C6305F908727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{238AC330-9FC9-427D-8BB4-1A72E4076246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259C2896-38E6-ED12-388B-7F0BE0C689C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{373C45F7-BCE6-93EB-A7B7-0FEDB5E12D5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{238AC330-9FC9-427D-8BB4-1A72E4076246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{205F4C39-16A7-48CA-AD1F-37232DD1FD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{373C45F7-BCE6-93EB-A7B7-0FEDB5E12D5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DE4772-8F11-3DE2-720D-C05241FDB400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
